--- a/Team-Data/2012-13/2-9-2012-13.xlsx
+++ b/Team-Data/2012-13/2-9-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -819,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -998,10 +1065,10 @@
         <v>14</v>
       </c>
       <c r="BB3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>0.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1242,22 +1309,22 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
         <v>40.8</v>
@@ -1266,31 +1333,31 @@
         <v>18.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC5" t="n">
         <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,19 +1375,19 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1329,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>15</v>
@@ -1344,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1502,10 +1569,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1517,13 +1584,13 @@
         <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>0.314</v>
+        <v>0.32</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1606,34 +1673,34 @@
         <v>20.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R7" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S7" t="n">
         <v>28.6</v>
       </c>
       <c r="T7" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U7" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
         <v>14.3</v>
       </c>
       <c r="W7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X7" t="n">
         <v>3.7</v>
@@ -1648,19 +1715,19 @@
         <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1690,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>13</v>
@@ -1702,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW7" t="n">
         <v>12</v>
@@ -1720,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.44</v>
+        <v>0.429</v>
       </c>
       <c r="H8" t="n">
         <v>49</v>
@@ -1776,67 +1843,67 @@
         <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L8" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>19.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.366</v>
+        <v>0.362</v>
       </c>
       <c r="O8" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.795</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
         <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W8" t="n">
         <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1863,13 +1930,13 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1881,7 +1948,7 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1890,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
@@ -1908,10 +1975,10 @@
         <v>20</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.647</v>
+        <v>0.64</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,7 +2025,7 @@
         <v>40.1</v>
       </c>
       <c r="J9" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
         <v>0.471</v>
@@ -1973,13 +2040,13 @@
         <v>0.338</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R9" t="n">
         <v>13.6</v>
@@ -1994,7 +2061,7 @@
         <v>23.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W9" t="n">
         <v>8.6</v>
@@ -2012,16 +2079,16 @@
         <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="n">
         <v>5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>4</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2042,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>17</v>
@@ -2072,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.373</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2143,7 +2210,7 @@
         <v>81.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
@@ -2152,7 +2219,7 @@
         <v>16.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.365</v>
+        <v>0.362</v>
       </c>
       <c r="O10" t="n">
         <v>16.2</v>
@@ -2161,28 +2228,28 @@
         <v>23.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
       <c r="R10" t="n">
         <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y10" t="n">
         <v>5.5</v>
@@ -2191,16 +2258,16 @@
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,28 +2276,28 @@
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
         <v>21</v>
@@ -2245,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>28</v>
@@ -2272,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -2304,103 +2371,103 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
         <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.392</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
         <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.799</v>
+        <v>0.801</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
         <v>33.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
@@ -2415,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>25</v>
@@ -2454,10 +2521,10 @@
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -2570,10 +2637,10 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG12" t="n">
         <v>14</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2615,13 +2682,13 @@
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2633,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2776,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2797,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -2958,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3161,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>7</v>
@@ -3310,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
         <v>25</v>
@@ -3352,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.51</v>
+        <v>0.521</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
         <v>86.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P18" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.738</v>
+        <v>0.734</v>
       </c>
       <c r="R18" t="n">
         <v>13</v>
@@ -3626,16 +3693,16 @@
         <v>30.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U18" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V18" t="n">
         <v>14.6</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X18" t="n">
         <v>7.5</v>
@@ -3644,25 +3711,25 @@
         <v>4.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA18" t="n">
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3704,16 +3771,16 @@
         <v>16</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>10</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3914,7 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3886,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
@@ -3913,7 +3980,7 @@
         <v>21</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
         <v>16</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>5.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF21" t="n">
         <v>4</v>
@@ -4223,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4241,10 +4308,10 @@
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR21" t="n">
         <v>18</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>19</v>
       </c>
       <c r="AS21" t="n">
         <v>21</v>
@@ -4274,7 +4341,7 @@
         <v>22</v>
       </c>
       <c r="BB21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
@@ -4453,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4584,10 +4651,10 @@
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -4670,67 +4737,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="n">
         <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.449</v>
+        <v>0.438</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M24" t="n">
         <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="O24" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="P24" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.718</v>
       </c>
       <c r="R24" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y24" t="n">
         <v>4.5</v>
@@ -4742,13 +4809,13 @@
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4772,13 +4839,13 @@
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,10 +4860,10 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4808,7 +4875,7 @@
         <v>21</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-4.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>26</v>
@@ -4954,10 +5021,10 @@
         <v>17</v>
       </c>
       <c r="AL25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
@@ -5002,7 +5069,7 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5148,7 +5215,7 @@
         <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>9</v>
@@ -5166,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW26" t="n">
         <v>24</v>
@@ -5184,10 +5251,10 @@
         <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -5216,88 +5283,88 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" t="n">
         <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S27" t="n">
         <v>28.3</v>
       </c>
       <c r="T27" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.3</v>
+        <v>95.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.9</v>
+        <v>-7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5306,37 +5373,37 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR27" t="n">
         <v>12</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>11</v>
       </c>
       <c r="AS27" t="n">
         <v>30</v>
@@ -5351,7 +5418,7 @@
         <v>19</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5363,10 +5430,10 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5524,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5670,10 +5737,10 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
         <v>13</v>
@@ -5700,7 +5767,7 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.538</v>
+        <v>0.549</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K30" t="n">
         <v>0.451</v>
@@ -5792,16 +5859,16 @@
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O30" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P30" t="n">
         <v>24</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.761</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
@@ -5810,13 +5877,13 @@
         <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
         <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
         <v>8.300000000000001</v>
@@ -5828,31 +5895,31 @@
         <v>6</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
         <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
@@ -5861,7 +5928,7 @@
         <v>20</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
@@ -5906,10 +5973,10 @@
         <v>23</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6043,7 +6110,7 @@
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6076,7 +6143,7 @@
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-9-2012-13</t>
+          <t>2013-02-09</t>
         </is>
       </c>
     </row>
